--- a/N3-Try.xlsx
+++ b/N3-Try.xlsx
@@ -12888,1905 +12888,1101 @@
     </r>
   </si>
   <si>
+    <t>&lt;ruby&gt;劇&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;げき&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;団&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;だん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đoàn kịch</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;演&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;えん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;劇&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;げき&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>diễn kịch</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;真&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;しん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;剣&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;けん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;な</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nghiêm chỉnh, nghiêm túc, chăm chỉ</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="AoyagiKouzanFontT"/>
+      </rPr>
+      <t>トップ</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;競&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;きょう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;走&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;そう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>thi chạy, chạy đua</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="AoyagiKouzanFontT"/>
+      </rPr>
+      <t>トレーニング（する）</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tập huấn, luyện tập</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;最&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;さい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;新&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;しん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;作&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;さく&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>công việc/tác phẩm mới nhất</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;終&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;しゅうで&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;電&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;（＝&lt;ruby&gt;最&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;さい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;終&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;しゅう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;電&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;でん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;車&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;しゃ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;）</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>chuyến xe điện cuối ngày</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;欠&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;けっ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;席&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;せき&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;（する）</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vắng mặt</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;休&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;きゅう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;校&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;こう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>trường học nghỉ</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;徹&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;てつ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;夜&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;や&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;（する）</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(thức) thâu đêm, trắng đêm</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;山&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;さん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;頂&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ちょう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đỉnh núi</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;手&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;しゅ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;術&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;じゅつ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;（する）</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>phẫu thuật, mổ</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;高&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;こう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;層&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;そう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;ビル</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tòa nhà cao tầng</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;反&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;はん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;対&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;たい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;運&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;うん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;動&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;どう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>cuộc vận động phản đối, biểu tình</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;交&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;こう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;流&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;りゅう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;（する）</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>giao lưu</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;思&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;おも&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;い&lt;ruby&gt;通&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;どお&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;り</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>như mình nghĩ, như ý</t>
+    </r>
+  </si>
+  <si>
+    <t>お&lt;ruby&gt;互&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;たが&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;い</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lẫn nhau</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;信&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;しん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;頼&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;らい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;関&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;かん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;係&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;けい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mối quan hệ dựa trên sự tin tưởng</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;個&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;こ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;性&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;せい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;的&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;てき&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;な</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>có tính cách riêng, có cá tính</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;国&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;こく&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;民&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;みん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>quốc dân, người dân</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;意&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;いけん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;見&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;い&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;を&lt;ruby&gt;言&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;あ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;い合う</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>chia sẻ ý kiến</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;意&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;い&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;見&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;けん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;を&lt;ruby&gt;言&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;い&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;い&lt;ruby&gt;合&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;あ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;う</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"chưa đâu, tôi vẫn còn phải học hỏi nhiều": dùng để trả lời khiêm tốn khi được khen</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="AoyagiKouzanFontT"/>
+      </rPr>
+      <t>にんじん</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>cà rốt</t>
+    </r>
+  </si>
+  <si>
+    <t>おれ</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">tôi: nam giới dùng để tự xưng, một cách
+</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="5.5"/>
+        <rFont val="IPAexMincho"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">わたし
+</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nói thông thường, không lịch sự như "</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="AoyagiKouzanFontT"/>
+      </rPr>
+      <t>私</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>và "</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="AoyagiKouzanFontT"/>
+      </rPr>
+      <t>ぼく</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="AoyagiKouzanFontT"/>
+      </rPr>
+      <t>バドミントン</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>cầu lông</t>
+    </r>
+  </si>
+  <si>
+    <t>ワンちゃん</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>chú cún, con chó: cách nói khi gọi chó của người ta</t>
+    </r>
+  </si>
+  <si>
+    <t>くり&lt;ruby&gt;返&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;かえ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;す</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lặp lại</t>
+    </r>
+  </si>
+  <si>
+    <t>（&lt;ruby&gt;話&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;はなし&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;が）まとまる</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(câu chuyện) được tóm tắt</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;納&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;のう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;品&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ひん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;（する）</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nộp, giao hàng</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;秘&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ひ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;密&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;みつ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bí mật</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;朝&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;あさ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;寝&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ね&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;坊&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ぼう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>dậy muộn, ngủ nướng</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;計&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;けい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;画&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;かく&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;的&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;てき&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;な</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>một cách có kế hoạch</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="AoyagiKouzanFontT"/>
+      </rPr>
+      <t>ペット</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>thú cưng</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="AoyagiKouzanFontT"/>
+      </rPr>
+      <t>バレンタインデー</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lễ tình nhân</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;大&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;だい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;企&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;き&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;業&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ぎょう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>công ty lớn, đại xí nghiệp</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;急&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;きゅう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;行&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;こう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;（＝&lt;ruby&gt;急&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;きゅう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;行&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;こう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;電&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;でん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;車&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;しゃ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;）</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>xe tốc hành</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="AoyagiKouzanFontT"/>
+      </rPr>
+      <t>デジカメ（＝デジタルカメラ）</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>máy chụp hình kỹ thuật số</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;機&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;き&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;能&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;のう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>chức năng</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;真&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ま&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;冬&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ふゆ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>giữa mùa đông</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="AoyagiKouzanFontT"/>
+      </rPr>
+      <t>T シャツ</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>áo thun</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;消&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;しょう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;費&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ひ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;税&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ぜい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>thuế tiêu dùng</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;効&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;こう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;果&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;か&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hiệu quả</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;冷&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;れい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;凍&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;とう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;庫&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;こ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tủ đông, ngăn đông</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;星&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ほし&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;占&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;うらな&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;い</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bói sao</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="AoyagiKouzanFontT"/>
+      </rPr>
+      <t>メダル</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>huy chương</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="AoyagiKouzanFontT"/>
+      </rPr>
+      <t>ずいぶん</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>rất, khá, vô cùng</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="AoyagiKouzanFontT"/>
+      </rPr>
+      <t>がんこな</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>cứng đầu, ngoan cố</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;甘&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;あま&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;やかす</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nuông chiều, chiều chuộng, dỗ ngọt</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;甘&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;あま&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;い</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>giản đơn, ngon ngọt</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;態&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;たい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;度&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ど&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>thái độ</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="AoyagiKouzanFontT"/>
+      </rPr>
+      <t>ワンシーン</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>một cảnh</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;意&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;い&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;地&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;じ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;悪&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;わる&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;，&lt;ruby&gt;意&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;い&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;地&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;じ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;悪&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;わる&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;な</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">nghịch ngợm, gây khó dễ cho người
+</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>khác, khó ưa</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="AoyagiKouzanFontT"/>
+      </rPr>
+      <t>そのくせ</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mặc dù… thế nhưng, tuy… nhưng</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;嫌&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;きら&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;う</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>không thích, ghét</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;緊&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;きん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;張&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ちょう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;（する）</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>khẩn trương, căng thẳng, hồi hộp</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="AoyagiKouzanFontT"/>
+      </rPr>
+      <t>ウイルスソフト</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>phần mềm diệt vi rút</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;海&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;かい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;水&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;すい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;浴&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;よく&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tắm biển</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;例&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;れい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;年&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ねん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hằng năm, mọi năm</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="AoyagiKouzanFontT"/>
+      </rPr>
+      <t>ウイルス</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vi rút</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;感&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;かん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;染&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;せん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;（する）</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>truyền nhiễm, lây</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;演&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;えん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;技&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ぎ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;（する）</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>biểu diễn nghệ thuật</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;抜&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ばつ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;群&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ぐん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;な</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>xuất chúng, nổi bật</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="AoyagiKouzanFontT"/>
+      </rPr>
+      <t>チームワーク</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>làm việc theo nhóm</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;取&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;と&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;り&lt;ruby&gt;扱&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;あつか&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;い</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sử dụng, thao tác, xử lý</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;刑&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;けい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;事&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;じ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hình sự</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;納&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;なっ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;豆&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;とう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">natto </t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(món tương đậu nành lên men)</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="AoyagiKouzanFontT"/>
+      </rPr>
+      <t>ピアス</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hoa tai, bông tai</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;人&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ひと&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;混&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ご&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;み</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đám đông</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;操&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;そ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;作&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;うさ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;（する）</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>thao tác, điều khiển</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;化&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;け&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;粧&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;しょう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;品&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ひん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mỹ phẩm</t>
+    </r>
+  </si>
+  <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="6"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t xml:space="preserve">げきだん
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>劇団</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>đoàn kịch</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">えんげき
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>演劇</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>diễn kịch</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">しんけん
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>真剣な</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>nghiêm chỉnh, nghiêm túc, chăm chỉ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>トップ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">きょうそう
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>競走</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>thi chạy, chạy đua</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>トレーニング（する）</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>tập huấn, luyện tập</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">さいしんさく
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>最新作</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>công việc/tác phẩm mới nhất</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">しゅうでん      さいしゅうでんしゃ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>終電（＝最終電車）</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>chuyến xe điện cuối ngày</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">けっせき
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>欠席（する）</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>vắng mặt</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">きゅうこう
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>休校</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>trường học nghỉ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">て つ や
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>徹夜（する）</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(thức) thâu đêm, trắng đêm</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">さんちょう
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>山頂</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>đỉnh núi</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">しゅじゅつ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>手術（する）</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>phẫu thuật, mổ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">こ う そ う
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>高層ビル</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>tòa nhà cao tầng</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">はんたいうんどう
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>反対運動</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>cuộc vận động phản đối, biểu tình</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">こうりゅう
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>交流（する）</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>giao lưu</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">おも    どお
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>思い通り</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>như mình nghĩ, như ý</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">たが
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>お互い</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lẫn nhau</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">しんらいかんけい
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>信頼関係</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>mối quan hệ dựa trên sự tin tưởng</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">こ せ い て き
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>個性的な</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>có tính cách riêng, có cá tính</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">こくみん
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>国民</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>quốc dân, người dân</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">い け ん    い     あ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>意見を言い合う</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>chia sẻ ý kiến</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">けんそん
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">まだまだです：ほめられて、謙遜するときに
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">つか
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>使う。</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"chưa đâu, tôi vẫn còn phải học hỏi nhiều": dùng để trả lời khiêm tốn khi được khen</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>にんじん</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>cà rốt</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">だんせい    じ ぶ ん                 つか      わたし
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">おれ：男性が自分をさすときに使う。「私」
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">い    かた
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>「ぼく」よりカジュアルでぞんざいな言い方。</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">tôi: nam giới dùng để tự xưng, một cách
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="IPAexMincho"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">わたし
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>nói thông thường, không lịch sự như "</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>私</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>và "</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>ぼく</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>バドミントン</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>cầu lông</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">ひと    か            いぬ    よ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">ワンちゃん：ほかの人が飼っている犬を呼
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">い    かた
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>ぶときの言い方。</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>chú cún, con chó: cách nói khi gọi chó của người ta</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">かえ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>くり返す</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lặp lại</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">はなし
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>（ 話が）まとまる</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(câu chuyện) được tóm tắt</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">のうひん
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>納品（する）</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>nộp, giao hàng</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">ひみつ 
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>秘密</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bí mật</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">あ さ ね ぼ う
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>朝寝坊</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>dậy muộn, ngủ nướng</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">けいかくてき
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>計画的な</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>một cách có kế hoạch</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>ペット</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>thú cưng</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>バレンタインデー</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lễ tình nhân</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">だいきぎょう
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>大企業</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>công ty lớn, đại xí nghiệp</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">きゅうこう      きゅうこうでんしゃ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>急行（＝急行電車）</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>xe tốc hành</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>デジカメ（＝デジタルカメラ）</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>máy chụp hình kỹ thuật số</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">き の う
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>機能</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>chức năng</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">ま ふ ゆ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>真冬</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>giữa mùa đông</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>T シャツ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>áo thun</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">しょうひぜい
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>消費税</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>thuế tiêu dùng</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">こ う か 
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>効果</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>hiệu quả</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">れ い と う こ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>冷凍庫</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>tủ đông, ngăn đông</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">ほしうらな
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>星占い</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bói sao</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>メダル</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>huy chương</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>ずいぶん</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>rất, khá, vô cùng</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>がんこな</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>cứng đầu, ngoan cố</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">あま
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>甘やかす</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>nuông chiều, chiều chuộng, dỗ ngọt</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">あま
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>甘い</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>giản đơn, ngon ngọt</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">た い ど
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>態度</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>thái độ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>ワンシーン</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>một cảnh</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">い じ わ る    い じ わ る
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>意地悪，意地悪な</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">nghịch ngợm, gây khó dễ cho người
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>khác, khó ưa</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>そのくせ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>mặc dù… thế nhưng, tuy… nhưng</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">きら 
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>嫌う</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>không thích, ghét</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">きんちょう
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>緊張（する）</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>khẩn trương, căng thẳng, hồi hộp</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>ウイルスソフト</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>phần mềm diệt vi rút</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">かいすいよく
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>海水浴</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>tắm biển</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">れいねん
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>例年</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>hằng năm, mọi năm</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>ウイルス</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>vi rút</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">かんせん
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>感染（する）</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>truyền nhiễm, lây</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">え ん ぎ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>演技（する）</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>biểu diễn nghệ thuật</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">ばつぐん
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>抜群な</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>xuất chúng, nổi bật</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>チームワーク</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>làm việc theo nhóm</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">と   あつか
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>取り扱い</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>sử dụng, thao tác, xử lý</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">け い じ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>刑事</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>hình sự</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">なっとう
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>納豆</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">natto </t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(món tương đậu nành lên men)</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>ピアス</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>hoa tai, bông tai</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">ひ と ご
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>人混み</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>đám đông</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">そ う さ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>操作（する）</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>thao tác, điều khiển</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">けしょうひん
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>化粧品</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>mỹ phẩm</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
       <t xml:space="preserve">しんゆう
 </t>
     </r>
@@ -14828,30 +14024,171 @@
     </r>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
+    <t>&lt;ruby&gt;頼&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;たよ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;る</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>dựa, nương tựa</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t xml:space="preserve">たよ
-</t>
-    </r>
+      <t>サークル</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hình tròn, nhóm, hội, câu lạc bộ</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;資&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;し&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;格&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;かく&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tư cách, chứng chỉ</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;起&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;お&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;き&lt;ruby&gt;上&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;あ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;がる</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>thức dậy, ngồi dậy</t>
+    </r>
+  </si>
+  <si>
+    <t>（&lt;ruby&gt;風&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;か&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;邪&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ぜ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;が）ひどい</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(bệnh cảm) nặng</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;台&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;だい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;所&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;どころ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nhà bếp</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;弱&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;よ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;気&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;わき&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;な</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nhát, nhút nhát, nhát gan</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;心&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;こころ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;細&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ぼそ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;い</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>cô đơn, lạc lỏng</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;寝&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ね&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;不&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ぶそく&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;足</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>thiếu ngủ</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;開&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;かい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;花&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;か&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;（する）</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hoa nở</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;夏&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;なつ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;バテ</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mệt mỏi với cái nóng mùa hè</t>
+    </r>
+  </si>
+  <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t>頼る</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>dựa, nương tựa</t>
+      <t>たっぷり</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đầy đủ, nhiều</t>
     </r>
   </si>
   <si>
@@ -14860,910 +14197,419 @@
         <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t>サークル</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>hình tròn, nhóm, hội, câu lạc bộ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
+      <t>うどん</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">mì </t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>udon</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;政&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;せい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;策&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;さく&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>chính sách</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;表&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;あらわ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;れる</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>xuất hiện, biểu hiện, lộ ra</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;支&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;し&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;持&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;じ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;率&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;りつ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tỉ lệ ủng hộ</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;支&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;し&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;持&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;じ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;（する）</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ủng hộ, giúp đỡ</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t xml:space="preserve">し か く
-</t>
-    </r>
+      <t>サラリーマン</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>người làm công ăn lương</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;期&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;き&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;末&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;まつ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>cuối kỳ</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;生&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;う&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;まれつき</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>trời sinh, vốn có khi sinh ra, bẩm sinh</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;染&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;そ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;める</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nhuộm</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;出&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;しゅつ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;演&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;えん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;（する）</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>diễn xuất, lên sân khấu</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;部&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ぶ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;下&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;か&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>cấp dưới</t>
+    </r>
+  </si>
+  <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t>資格</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>tư cách, chứng chỉ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
+      <t>のんびり</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>thong thả, thoải mái</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t xml:space="preserve">お     あ
-</t>
-    </r>
+      <t>せっかく</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>cất công, ra sức, nỗ lực</t>
+    </r>
+  </si>
+  <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t>起き上がる</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>thức dậy, ngồi dậy</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
+      <t>プラグ</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>phích điện, phích cắm</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;抜&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ぬ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;ける</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>rút ra, rơi, rụng</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t xml:space="preserve">か  ぜ
-</t>
-    </r>
+      <t>じっとする</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ở yên một chỗ, chăm chú</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;落&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;お&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;ち&lt;ruby&gt;込&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;こ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;む</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>rơi xuống, ủ rủ</t>
+    </r>
+  </si>
+  <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t>（風邪が）ひどい</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(bệnh cảm) nặng</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
+      <t>クラスメイト</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bạn học chung lớp</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;社&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;しゃ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;会&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;かい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;人&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;じん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>người đi làm, người trưởng thành</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t xml:space="preserve">だいどころ
-</t>
-    </r>
+      <t>ドロドロ</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nhão nhoẹt, sền sệt</t>
+    </r>
+  </si>
+  <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t>台所</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>nhà bếp</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
+      <t>リットル</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lít</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;無&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;む&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;駄&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;だ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;，&lt;ruby&gt;無&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;む&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;駄&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;だ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;な</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lãng phí, vô ích</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t xml:space="preserve">よ わ き
-</t>
-    </r>
+      <t>ユニフォーム</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đồng phục</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;泥&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;どろ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bùn, sình</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;奥&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;おく&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bên trong, nơi sâu kín</t>
+    </r>
+  </si>
+  <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t>弱気な</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>nhát, nhút nhát, nhát gan</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
+      <t>カビ</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nấm mốc</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t xml:space="preserve">こころぼそ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>心細い</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>cô đơn, lạc lỏng</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">ね ぶ そ く
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>寝不足</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>thiếu ngủ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">かいか 
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>開花（する）</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>hoa nở</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">なつ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>夏バテ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>mệt mỏi với cái nóng mùa hè</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>たっぷり</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>đầy đủ, nhiều</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>うどん</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">mì </t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>udon</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">せいさく
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>政策</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>chính sách</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">あらわ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>表れる</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>xuất hiện, biểu hiện, lộ ra</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">し じ り つ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>支持率</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>tỉ lệ ủng hộ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">し  じ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>支持（する）</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ủng hộ, giúp đỡ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>サラリーマン</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>người làm công ăn lương</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">き ま つ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>期末</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>cuối kỳ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">う
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>生まれつき</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>trời sinh, vốn có khi sinh ra, bẩm sinh</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">そ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>染める</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>nhuộm</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">しゅつえん
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>出演（する）</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>diễn xuất, lên sân khấu</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">ぶ  か
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>部下</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>cấp dưới</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>のんびり</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>thong thả, thoải mái</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>せっかく</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>cất công, ra sức, nỗ lực</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>プラグ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>phích điện, phích cắm</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">ぬ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>抜ける</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>rút ra, rơi, rụng</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>じっとする</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ở yên một chỗ, chăm chú</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">お     こ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>落ち込む</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>rơi xuống, ủ rủ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>クラスメイト</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bạn học chung lớp</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">しゃかいじん 
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>社会人</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>người đi làm, người trưởng thành</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>ドロドロ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>nhão nhoẹt, sền sệt</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>リットル</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lít</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">む  だ    む  だ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>無駄，無駄な</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lãng phí, vô ích</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>ユニフォーム</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>đồng phục</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">どろ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>泥</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bùn, sình</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">おく 
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>奥</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bên trong, nơi sâu kín</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>カビ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>nấm mốc</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
       <t>チーズ</t>
     </r>
   </si>
@@ -15778,21 +14624,7 @@
     </r>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">いがく 
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>医学</t>
-    </r>
+    <t>&lt;ruby&gt;医&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;い&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;学&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;がく&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
   </si>
   <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -15805,21 +14637,7 @@
     </r>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">がく        ぶ ん や    がくもん   あらわ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>～学：ある分野の学問を表す。</t>
-    </r>
+    <t>～&lt;ruby&gt;学&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;がく&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
   </si>
   <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -15863,57 +14681,131 @@
     </r>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
+    <t>&lt;ruby&gt;入&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;にゅう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;社&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;しゃ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;（する）</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vào công ty</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;本&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ほん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;棚&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;だな&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>kệ sách</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t xml:space="preserve">にゅうしゃ
-</t>
-    </r>
+      <t>きず</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vết thương, vết nứt, trầy xước</t>
+    </r>
+  </si>
+  <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t>入社（する）</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>vào công ty</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
+      <t>しわ</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nhăn, nếp nhăn</t>
+    </r>
+  </si>
+  <si>
+    <t>お&lt;ruby&gt;相&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;す&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;撲&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;もう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;さん</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>võ sĩ sumo</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t xml:space="preserve">ほんだな
-</t>
-    </r>
+      <t>ゆでたまご</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>trứng luộc</t>
+    </r>
+  </si>
+  <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t>本棚</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>kệ sách</t>
+      <t>ソファー</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ghế xô-pha</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;叫&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;さけ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;ぶ</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>la, hét, kêu gào</t>
     </r>
   </si>
   <si>
@@ -15922,17 +14814,17 @@
         <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t>きず</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>vết thương, vết nứt, trầy xước</t>
+      <t>うそ</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lời nói dối, lời giả dối</t>
     </r>
   </si>
   <si>
@@ -15941,44 +14833,120 @@
         <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t>しわ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>nhăn, nếp nhăn</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
+      <t>うそをつく</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nói dối, nói xạo</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t xml:space="preserve">す も う
-</t>
-    </r>
+      <t>ほこり</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bụi, bụi bặm</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;物&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ぶつ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;理&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;り&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vật lý</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;理&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;り&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;科&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;か&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;系&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;けい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>liên quan khoa học tự nhiên</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;科&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;か&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;目&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;もく&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>môn học</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;出&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;しゅっ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;席&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;せき&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;率&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;りつ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tỉ lệ có mặt/tham dự</t>
+    </r>
+  </si>
+  <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t>お相撲さん</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>võ sĩ sumo</t>
+      <t>メリット</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lợi điểm, ưu điểm</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;絵&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;え&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;はがき</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>postcard, bưu thiếp</t>
     </r>
   </si>
   <si>
@@ -15987,17 +14955,30 @@
         <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t>ゆでたまご</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>trứng luộc</t>
+      <t>スパゲティ</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>spaghetti, mì Ý</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;薬&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;やっ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;局&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;きょく&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tiệm/hiệu thuốc</t>
     </r>
   </si>
   <si>
@@ -16006,44 +14987,120 @@
         <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t>ソファー</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ghế xô-pha</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
+      <t>トイレットペーパー</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>giấy vệ sinh</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t xml:space="preserve">さけ 
-</t>
-    </r>
+      <t>カフェ</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>cà phê</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;乾&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;かん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;燥&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;そう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;（する）</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>khô khan, sấy khô</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;太&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ふと&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;る</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mập</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;平&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;へい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;気&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;き&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;な</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>thản nhiên, bình tĩnh, dửng dưng</t>
+    </r>
+  </si>
+  <si>
+    <t>はらが&lt;ruby&gt;立&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;た&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;つ</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tức giận, nổi giận</t>
+    </r>
+  </si>
+  <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t>叫ぶ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>la, hét, kêu gào</t>
+      <t>ヘッドホン</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tai nghe</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;用&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;よう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;件&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;けん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>việc, sự việc, việc quan trọng</t>
     </r>
   </si>
   <si>
@@ -16052,17 +15109,72 @@
         <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t>うそ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lời nói dối, lời giả dối</t>
+      <t>ガーデニング</t>
+    </r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>làm vườn</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;毛&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;け&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;虫&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;むし&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>con sâu róm</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;高&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;こう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;原&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;げん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>cao nguyên</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;昨&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;さく&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;晩&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ばん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;抱&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;だ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;く</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bế, ôm, ấp, ẵm</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;盗&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ぬす&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;む</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ăn cắp</t>
     </r>
   </si>
   <si>
@@ -16071,580 +15183,6 @@
         <sz val="11"/>
         <rFont val="AoyagiKouzanFontT"/>
       </rPr>
-      <t>うそをつく</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>nói dối, nói xạo</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>ほこり</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bụi, bụi bặm</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">ぶ つ り
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>物理</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>vật lý</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">り  か けい
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>理科系</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>liên quan khoa học tự nhiên</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">か も く 
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>科目</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>môn học</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">しゅっせきりつ 
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>出席率</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>tỉ lệ có mặt/tham dự</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>メリット</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lợi điểm, ưu điểm</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">え
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>絵はがき</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>postcard, bưu thiếp</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>スパゲティ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>spaghetti, mì Ý</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">やっきょく
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>薬局</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>tiệm/hiệu thuốc</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>トイレットペーパー</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>giấy vệ sinh</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>カフェ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>cà phê</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">かんそう
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>乾燥（する）</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>khô khan, sấy khô</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">ふと
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>太る</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>mập</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">へ い き
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>平気な</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>thản nhiên, bình tĩnh, dửng dưng</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">た
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>はらが立つ</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>tức giận, nổi giận</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>ヘッドホン</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>tai nghe</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">ようけん 
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>用件</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>việc, sự việc, việc quan trọng</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>ガーデニング</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>làm vườn</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">け む し
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>毛虫</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>con sâu róm</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">こうげん 
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>高原</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>cao nguyên</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">さくばん
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>昨晩</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">だ
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>抱く</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bế, ôm, ấp, ẵm</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">ぬす
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>盗む</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ăn cắp</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
       <t>エネルギー</t>
     </r>
   </si>
@@ -16659,21 +15197,7 @@
     </r>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">かた
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>語る</t>
-    </r>
+    <t>&lt;ruby&gt;語&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;かた&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;る</t>
   </si>
   <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -16686,21 +15210,7 @@
     </r>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">じょうだん
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>冗談</t>
-    </r>
+    <t>&lt;ruby&gt;冗&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;じょう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;談&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;だん&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
   </si>
   <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -16713,38 +15223,10 @@
     </r>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">さ ぎ ょ う
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>作業（する）</t>
-    </r>
-  </si>
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="6"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t xml:space="preserve">たいよう
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="AoyagiKouzanFontT"/>
-      </rPr>
-      <t>太陽</t>
-    </r>
+    <t>&lt;ruby&gt;作&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;さ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;業&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ぎょう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;（する）</t>
+  </si>
+  <si>
+    <t>&lt;ruby&gt;太&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;たい&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;ruby&gt;陽&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;よう&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;</t>
   </si>
   <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
